--- a/docs/HIPC_VO_requests-Oct2019.xlsx
+++ b/docs/HIPC_VO_requests-Oct2019.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
   <si>
     <t>Vaccine Name</t>
   </si>
@@ -157,12 +157,6 @@
     <t>Avey et al 2019, submitted</t>
   </si>
   <si>
-    <t>Added VO ID</t>
-  </si>
-  <si>
-    <t>VO_0003961</t>
-  </si>
-  <si>
     <t>http://purl.obolibrary.org/obo/VO_0004890</t>
   </si>
   <si>
@@ -173,6 +167,9 @@
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/VO_0004894</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/VO_0003961</t>
   </si>
 </sst>
 </file>
@@ -650,16 +647,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30" style="10" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="10"/>
+    <col min="2" max="2" width="24.85546875" style="10" customWidth="1"/>
     <col min="3" max="3" width="27.7109375" style="10" customWidth="1"/>
     <col min="4" max="4" width="39.7109375" style="10" customWidth="1"/>
     <col min="5" max="5" width="25.28515625" style="10" customWidth="1"/>
@@ -667,11 +664,10 @@
     <col min="7" max="7" width="25" style="10" customWidth="1"/>
     <col min="8" max="8" width="23.28515625" style="10" customWidth="1"/>
     <col min="9" max="9" width="20.42578125" style="10" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" style="10" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="10"/>
+    <col min="10" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -699,31 +695,15 @@
       <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
+      <c r="J1" s="9"/>
     </row>
-    <row r="2" spans="1:26" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="6"/>
+      <c r="B2" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="C2" s="6" t="s">
         <v>10</v>
       </c>
@@ -745,31 +725,15 @@
       <c r="I2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="6"/>
+      <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:26" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="6"/>
+      <c r="B3" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="C3" s="6" t="s">
         <v>18</v>
       </c>
@@ -789,31 +753,15 @@
       <c r="I3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="6"/>
+      <c r="J3" s="6"/>
     </row>
-    <row r="4" spans="1:26" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="6"/>
+      <c r="B4" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="C4" s="6" t="s">
         <v>25</v>
       </c>
@@ -835,31 +783,15 @@
       <c r="I4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
+      <c r="J4" s="6"/>
     </row>
-    <row r="5" spans="1:26" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="6"/>
+      <c r="B5" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="C5" s="6" t="s">
         <v>33</v>
       </c>
@@ -879,31 +811,15 @@
       <c r="I5" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="6"/>
+      <c r="J5" s="6"/>
     </row>
-    <row r="6" spans="1:26" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="8"/>
+      <c r="B6" s="8" t="s">
+        <v>46</v>
+      </c>
       <c r="C6" s="8" t="s">
         <v>39</v>
       </c>
@@ -921,25 +837,7 @@
       <c r="I6" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="8"/>
-      <c r="Z6" s="8"/>
+      <c r="J6" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
